--- a/natmiOut/OldD7/LR-pairs_lrc2p/C3-Itgax.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/C3-Itgax.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,57 +531,57 @@
         <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.470138041467683</v>
+        <v>1.558564</v>
       </c>
       <c r="H2">
-        <v>0.470138041467683</v>
+        <v>4.675692</v>
       </c>
       <c r="I2">
-        <v>0.001779278815664694</v>
+        <v>0.005692101168584756</v>
       </c>
       <c r="J2">
-        <v>0.001779278815664694</v>
+        <v>0.005692101168584756</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>40.3475604065203</v>
+        <v>45.39437433333333</v>
       </c>
       <c r="N2">
-        <v>40.3475604065203</v>
+        <v>136.183123</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9965580896473674</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9965580896473674</v>
       </c>
       <c r="Q2">
-        <v>18.96892302752049</v>
+        <v>70.75003763845733</v>
       </c>
       <c r="R2">
-        <v>18.96892302752049</v>
+        <v>636.750338746116</v>
       </c>
       <c r="S2">
-        <v>0.001779278815664694</v>
+        <v>0.005672509466644372</v>
       </c>
       <c r="T2">
-        <v>0.001779278815664694</v>
+        <v>0.005672509466644372</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>252.361879689836</v>
+        <v>1.558564</v>
       </c>
       <c r="H3">
-        <v>252.361879689836</v>
+        <v>4.675692</v>
       </c>
       <c r="I3">
-        <v>0.9550857552638886</v>
+        <v>0.005692101168584756</v>
       </c>
       <c r="J3">
-        <v>0.9550857552638886</v>
+        <v>0.005692101168584756</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>40.3475604065203</v>
+        <v>0.156783</v>
       </c>
       <c r="N3">
-        <v>40.3475604065203</v>
+        <v>0.470349</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.00344191035263268</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.00344191035263268</v>
       </c>
       <c r="Q3">
-        <v>10182.18618508867</v>
+        <v>0.244356339612</v>
       </c>
       <c r="R3">
-        <v>10182.18618508867</v>
+        <v>2.199207056508</v>
       </c>
       <c r="S3">
-        <v>0.9550857552638886</v>
+        <v>1.959170194038445E-05</v>
       </c>
       <c r="T3">
-        <v>0.9550857552638886</v>
+        <v>1.959170194038445E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -655,57 +655,57 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.0635042290981</v>
+        <v>259.5505726666667</v>
       </c>
       <c r="H4">
-        <v>11.0635042290981</v>
+        <v>778.6517180000001</v>
       </c>
       <c r="I4">
-        <v>0.04187080594541537</v>
+        <v>0.9479162344201305</v>
       </c>
       <c r="J4">
-        <v>0.04187080594541537</v>
+        <v>0.9479162344201304</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>40.3475604065203</v>
+        <v>45.39437433333333</v>
       </c>
       <c r="N4">
-        <v>40.3475604065203</v>
+        <v>136.183123</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.9965580896473674</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.9965580896473674</v>
       </c>
       <c r="Q4">
-        <v>446.3854051913284</v>
+        <v>11782.1358540617</v>
       </c>
       <c r="R4">
-        <v>446.3854051913284</v>
+        <v>106039.2226865553</v>
       </c>
       <c r="S4">
-        <v>0.04187080594541537</v>
+        <v>0.9446535917194513</v>
       </c>
       <c r="T4">
-        <v>0.04187080594541537</v>
+        <v>0.9446535917194512</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,303 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>259.5505726666667</v>
+      </c>
+      <c r="H5">
+        <v>778.6517180000001</v>
+      </c>
+      <c r="I5">
+        <v>0.9479162344201305</v>
+      </c>
+      <c r="J5">
+        <v>0.9479162344201304</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.156783</v>
+      </c>
+      <c r="N5">
+        <v>0.470349</v>
+      </c>
+      <c r="O5">
+        <v>0.00344191035263268</v>
+      </c>
+      <c r="P5">
+        <v>0.00344191035263268</v>
+      </c>
+      <c r="Q5">
+        <v>40.69311743439801</v>
+      </c>
+      <c r="R5">
+        <v>366.238056909582</v>
+      </c>
+      <c r="S5">
+        <v>0.003262642700679233</v>
+      </c>
+      <c r="T5">
+        <v>0.003262642700679233</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.334028421813718</v>
-      </c>
-      <c r="H5">
-        <v>0.334028421813718</v>
-      </c>
-      <c r="I5">
-        <v>0.001264159975031318</v>
-      </c>
-      <c r="J5">
-        <v>0.001264159975031318</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>40.3475604065203</v>
-      </c>
-      <c r="N5">
-        <v>40.3475604065203</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>13.47723192662363</v>
-      </c>
-      <c r="R5">
-        <v>13.47723192662363</v>
-      </c>
-      <c r="S5">
-        <v>0.001264159975031318</v>
-      </c>
-      <c r="T5">
-        <v>0.001264159975031318</v>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>12.18925266666667</v>
+      </c>
+      <c r="H6">
+        <v>36.567758</v>
+      </c>
+      <c r="I6">
+        <v>0.04451691386950307</v>
+      </c>
+      <c r="J6">
+        <v>0.04451691386950307</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>45.39437433333333</v>
+      </c>
+      <c r="N6">
+        <v>136.183123</v>
+      </c>
+      <c r="O6">
+        <v>0.9965580896473674</v>
+      </c>
+      <c r="P6">
+        <v>0.9965580896473674</v>
+      </c>
+      <c r="Q6">
+        <v>553.3234983942482</v>
+      </c>
+      <c r="R6">
+        <v>4979.911485548234</v>
+      </c>
+      <c r="S6">
+        <v>0.04436369064278838</v>
+      </c>
+      <c r="T6">
+        <v>0.04436369064278838</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>12.18925266666667</v>
+      </c>
+      <c r="H7">
+        <v>36.567758</v>
+      </c>
+      <c r="I7">
+        <v>0.04451691386950307</v>
+      </c>
+      <c r="J7">
+        <v>0.04451691386950307</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.156783</v>
+      </c>
+      <c r="N7">
+        <v>0.470349</v>
+      </c>
+      <c r="O7">
+        <v>0.00344191035263268</v>
+      </c>
+      <c r="P7">
+        <v>0.00344191035263268</v>
+      </c>
+      <c r="Q7">
+        <v>1.911067600838</v>
+      </c>
+      <c r="R7">
+        <v>17.199608407542</v>
+      </c>
+      <c r="S7">
+        <v>0.0001532232267147</v>
+      </c>
+      <c r="T7">
+        <v>0.0001532232267147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.5133286666666667</v>
+      </c>
+      <c r="H8">
+        <v>1.539986</v>
+      </c>
+      <c r="I8">
+        <v>0.001874750541781658</v>
+      </c>
+      <c r="J8">
+        <v>0.001874750541781658</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>45.39437433333333</v>
+      </c>
+      <c r="N8">
+        <v>136.183123</v>
+      </c>
+      <c r="O8">
+        <v>0.9965580896473674</v>
+      </c>
+      <c r="P8">
+        <v>0.9965580896473674</v>
+      </c>
+      <c r="Q8">
+        <v>23.30223365069756</v>
+      </c>
+      <c r="R8">
+        <v>209.720102856278</v>
+      </c>
+      <c r="S8">
+        <v>0.001868297818483296</v>
+      </c>
+      <c r="T8">
+        <v>0.001868297818483296</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.5133286666666667</v>
+      </c>
+      <c r="H9">
+        <v>1.539986</v>
+      </c>
+      <c r="I9">
+        <v>0.001874750541781658</v>
+      </c>
+      <c r="J9">
+        <v>0.001874750541781658</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.156783</v>
+      </c>
+      <c r="N9">
+        <v>0.470349</v>
+      </c>
+      <c r="O9">
+        <v>0.00344191035263268</v>
+      </c>
+      <c r="P9">
+        <v>0.00344191035263268</v>
+      </c>
+      <c r="Q9">
+        <v>0.080481208346</v>
+      </c>
+      <c r="R9">
+        <v>0.724330875114</v>
+      </c>
+      <c r="S9">
+        <v>6.452723298362014E-06</v>
+      </c>
+      <c r="T9">
+        <v>6.452723298362014E-06</v>
       </c>
     </row>
   </sheetData>
